--- a/mbs-perturbation/bloated/welm/smote/bloated_welm_rbf_smote_results.xlsx
+++ b/mbs-perturbation/bloated/welm/smote/bloated_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4864253393665158</v>
+        <v>0.4975124378109453</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5374149659863946</v>
+        <v>0.5149253731343284</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5034013605442177</v>
+        <v>0.5199004975124378</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4807256235827664</v>
+        <v>0.5112219451371571</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.492063492063492</v>
+        <v>0.456359102244389</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5000061563086773</v>
+        <v>0.4999838711678516</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
